--- a/ToolbarOfFunctions/Testing/Book1.xlsx
+++ b/ToolbarOfFunctions/Testing/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,23 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="397">
   <si>
     <t>C:\Temp\sfc\ArchiveFiles.vbs</t>
   </si>
   <si>
-    <t>24/05/2018 20:57:44</t>
-  </si>
-  <si>
     <t>ArchiveFiles.vbs</t>
   </si>
   <si>
     <t>C:\Temp\sfc\ArchiveFiles.vbs.Lnk</t>
   </si>
   <si>
-    <t>24/05/2018 20:57:30</t>
-  </si>
-  <si>
     <t>ArchiveFiles.vbs.Lnk</t>
   </si>
   <si>
@@ -67,18 +62,12 @@
     <t>C:\Temp\sfc\sendEmail.exe</t>
   </si>
   <si>
-    <t>24/05/2018 20:57:31</t>
-  </si>
-  <si>
     <t>sendEmail.exe</t>
   </si>
   <si>
     <t>C:\Temp\sfc\SilentLaunch.exe</t>
   </si>
   <si>
-    <t>24/05/2018 20:57:36</t>
-  </si>
-  <si>
     <t>1.00.0001</t>
   </si>
   <si>
@@ -88,9 +77,6 @@
     <t>C:\Temp\sfc\SpaceSniffer.exe</t>
   </si>
   <si>
-    <t>24/05/2018 20:57:42</t>
-  </si>
-  <si>
     <t>1.3.0.2</t>
   </si>
   <si>
@@ -116,6 +102,1122 @@
   </si>
   <si>
     <t>File Name Extracted</t>
+  </si>
+  <si>
+    <t>C:\Bin\ArchiveFiles.vbs</t>
+  </si>
+  <si>
+    <t>C:\Bin\ArchiveFiles.vbs.Lnk</t>
+  </si>
+  <si>
+    <t>27/03/2018 13:13:53</t>
+  </si>
+  <si>
+    <t>C:\Bin\ArchiveMyBackup.cmd</t>
+  </si>
+  <si>
+    <t>ArchiveMyBackup.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\BackupHomeDrive.cmd</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\BackupSourceCode.cmd</t>
+  </si>
+  <si>
+    <t>BackupSourceCode.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\call_BackupHomeDrive.cmd</t>
+  </si>
+  <si>
+    <t>23/03/2018 12:59:13</t>
+  </si>
+  <si>
+    <t>call_BackupHomeDrive.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\CleanDownFolders.cmd</t>
+  </si>
+  <si>
+    <t>CleanDownFolders.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\Contig64.exe</t>
+  </si>
+  <si>
+    <t>Contig64.exe</t>
+  </si>
+  <si>
+    <t>C:\Bin\NETSTARTMcAfee.cmd</t>
+  </si>
+  <si>
+    <t>22/03/2018 13:27:41</t>
+  </si>
+  <si>
+    <t>NETSTARTMcAfee.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\NETSTOPMcAfee.cmd</t>
+  </si>
+  <si>
+    <t>21/03/2018 14:25:06</t>
+  </si>
+  <si>
+    <t>NETSTOPMcAfee.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\procexp64.exe</t>
+  </si>
+  <si>
+    <t>27/02/2018 17:10:23</t>
+  </si>
+  <si>
+    <t>C:\Bin\restart.cmd</t>
+  </si>
+  <si>
+    <t>restart.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\sendEmail.exe</t>
+  </si>
+  <si>
+    <t>C:\Bin\SilentLaunch.exe</t>
+  </si>
+  <si>
+    <t>C:\Bin\SpaceSniffer.exe</t>
+  </si>
+  <si>
+    <t>C:\Bin\AutoZip\AutoZip02.cmd</t>
+  </si>
+  <si>
+    <t>AutoZip02.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\AutoZip\Files.txt</t>
+  </si>
+  <si>
+    <t>Files.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckMemory\CheckMemory - Copy.ini</t>
+  </si>
+  <si>
+    <t>CheckMemory - Copy.ini</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckMemory\CheckMemory.cmd</t>
+  </si>
+  <si>
+    <t>CheckMemory.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckMemory\CheckMemory.ini</t>
+  </si>
+  <si>
+    <t>CheckMemory.ini</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckMemory\CheckMemory.vbs</t>
+  </si>
+  <si>
+    <t>CheckMemory.vbs</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckMemory\Logfile.txt</t>
+  </si>
+  <si>
+    <t>Logfile.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\CheckService\M_checkService.bas</t>
+  </si>
+  <si>
+    <t>21/03/2018 09:25:23</t>
+  </si>
+  <si>
+    <t>M_checkService.bas</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\ArchiveFiles.vbs.lnk</t>
+  </si>
+  <si>
+    <t>ArchiveFiles.vbs.lnk</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2015\12-December\Logfile-10-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-10-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2015\12-December\Logfile-11-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-11-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2015\12-December\Logfile-14-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-14-12-2015-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-23-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-23-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-24-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-24-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-27-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-27-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-28-02-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-28-02-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-28-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-28-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-29-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-29-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\03-March\Logfile-30-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-30-03-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\ArchiveLogfile-01-04-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-01-04-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-03-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-03-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-04-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-04-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-05-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-05-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-06-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-06-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-07-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-07-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-11-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-11-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-12-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-12-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-13-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-13-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\04-April\Logfile-14-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-14-04-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-15-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-15-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-18-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-18-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-19-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-19-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-20-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-20-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-21-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-21-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-22-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-22-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-25-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-25-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-26-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-26-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-27-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-27-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-28-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-28-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\09-September\Logfile-29-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-29-09-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\ArchiveLogfile-04-10-2017-15-41.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-04-10-2017-15-41.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\ArchiveLogfile-07-10-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-07-10-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\ArchiveLogfile-12-10-2017-01-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-12-10-2017-01-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\ArchiveLogfile-13-10-2017-01-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-13-10-2017-01-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-04-10-2017-15-13.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-10-2017-15-13.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-04-10-2017-16-06.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-10-2017-16-06.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-04-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-05-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-05-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-06-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-06-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-07-10-2017-02-50.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-07-10-2017-02-50.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-09-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-09-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-10-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-10-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-11-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-11-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-12-10-2017-01-43.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-12-10-2017-01-43.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-12-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-12-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-13-10-2017-01-41.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-13-10-2017-01-41.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-13-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-13-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-16-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-16-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-17-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-17-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-18-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-18-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-19-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-19-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-20-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-20-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-23-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-23-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-24-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-24-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-25-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-25-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-26-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-26-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-27-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-27-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-30-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-30-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\BackupHomeDrive_Log-31-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-31-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\Logfile-02-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-02-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\10-October\Logfile-03-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>Logfile-03-10-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\ArchiveLogfile-04-11-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-04-11-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-01-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-01-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-02-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-03-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-03-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-04-11-2017-02-40.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-11-2017-02-40.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-06-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-06-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-07-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-07-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-08-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-08-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-09-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-09-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-10-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-10-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-13-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-13-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-14-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-14-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-16-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-16-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-17-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-17-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-20-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-20-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-21-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-21-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-22-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-22-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-23-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-23-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-24-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-24-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-27-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-27-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-28-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-28-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-29-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-29-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\11-November\BackupHomeDrive_Log-30-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-30-11-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\ArchiveLogfile-02-12-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-02-12-2017-02-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-01-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-01-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-02-12-2017-02-43.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-12-2017-02-43.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-04-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-05-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-05-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-06-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-06-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-07-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-07-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-08-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-08-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-11-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-11-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-12-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-12-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-13-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-13-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-14-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-14-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-15-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-15-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-18-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-18-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-19-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-19-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-20-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-20-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-21-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-21-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-22-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-22-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-25-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-25-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-26-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-26-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-27-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-27-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-28-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-28-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2017\12-December\BackupHomeDrive_Log-29-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-29-12-2017-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-02-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-03-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-03-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-04-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-04-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-05-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-05-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-06-01-2018-02-55.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-06-01-2018-02-55.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-08-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-08-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-09-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-09-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-10-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-10-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-11-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-11-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-12-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-12-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-15-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-15-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-16-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-16-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-17-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-17-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-18-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-18-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-19-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-19-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-22-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-22-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-23-01-2018-16-24.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-23-01-2018-16-24.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-23-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-23-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-24-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-24-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-25-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-25-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-26-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-26-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-29-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-29-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-30-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-30-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\01-January\BackupHomeDrive_Log-31-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-31-01-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-01-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-01-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-03-02-2018-02-55.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-03-02-2018-02-55.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-05-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-05-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-06-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-07-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-07-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-08-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-09-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-09-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-12-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-12-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-13-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-13-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-14-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-15-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-15-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-16-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-16-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-19-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-19-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-20-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-20-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-21-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-21-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-22-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-22-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-23-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-23-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-26-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-26-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-27-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-27-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-28-02-2018-19-09.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-28-02-2018-19-09.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\02-February\BackupHomeDrive_Log-28-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-28-02-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\ArchiveLogfile-03-03-2018-02-00.txt</t>
+  </si>
+  <si>
+    <t>ArchiveLogfile-03-03-2018-02-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-01-03-2018-18-24.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-01-03-2018-18-24.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-02-03-2018-16-37.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-03-2018-16-37.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-02-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-02-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-03-03-2018-02-41.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-03-03-2018-02-41.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-05-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-05-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-06-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-06-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\Logs\2018\03-March\BackupHomeDrive_Log-07-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>BackupHomeDrive_Log-07-03-2018-23-00.txt</t>
+  </si>
+  <si>
+    <t>C:\Bin\SendHourlyeMail\eMailMe.cmd</t>
+  </si>
+  <si>
+    <t>eMailMe.cmd</t>
+  </si>
+  <si>
+    <t>C:\Bin\SendHourlyeMail\TestMessage.txt</t>
+  </si>
+  <si>
+    <t>TestMessage.txt</t>
   </si>
 </sst>
 </file>
@@ -443,139 +1545,2640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43051.59988425926</v>
       </c>
       <c r="C2">
         <v>47031</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>877</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>43081.570428240739</v>
+        <v>43051.59988425926</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>6562</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43051.59988425926</v>
       </c>
       <c r="C5">
-        <v>1458856</v>
-      </c>
-      <c r="D5">
-        <v>16.21</v>
+        <v>6646</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>43081.570428240739</v>
+        <v>43051.59988425926</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>3475</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>454656</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43051.59988425926</v>
       </c>
       <c r="C8">
-        <v>20480</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+        <v>1099</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43051.59988425926</v>
       </c>
       <c r="C9">
+        <v>268960</v>
+      </c>
+      <c r="D9">
+        <v>1.8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>222</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>1458856</v>
+      </c>
+      <c r="D12">
+        <v>16.21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C13">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C14">
+        <v>454656</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C15">
+        <v>20480</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C16">
         <v>2309632</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C17">
+        <v>1181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C18">
+        <v>2391</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C19">
+        <v>1091</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C21">
+        <v>1073</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C22">
+        <v>13184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43051.599629629629</v>
+      </c>
+      <c r="C23">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>15217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C25">
+        <v>1489</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C26">
+        <v>1097</v>
+      </c>
+      <c r="E26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C27">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43315.628113425926</v>
+      </c>
+      <c r="C28">
+        <v>777921</v>
+      </c>
+      <c r="E28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43315.628125000003</v>
+      </c>
+      <c r="C29">
+        <v>777921</v>
+      </c>
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43315.628125000003</v>
+      </c>
+      <c r="C30">
+        <v>777921</v>
+      </c>
+      <c r="E30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43315.628136574072</v>
+      </c>
+      <c r="C31">
+        <v>777921</v>
+      </c>
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43315.628148148149</v>
+      </c>
+      <c r="C32">
+        <v>2600508</v>
+      </c>
+      <c r="E32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43315.628159722219</v>
+      </c>
+      <c r="C33">
+        <v>812165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43315.628171296295</v>
+      </c>
+      <c r="C34">
+        <v>814825</v>
+      </c>
+      <c r="E34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43315.628182870372</v>
+      </c>
+      <c r="C35">
+        <v>776053</v>
+      </c>
+      <c r="E35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43315.628182870372</v>
+      </c>
+      <c r="C36">
+        <v>779887</v>
+      </c>
+      <c r="E36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43315.628194444442</v>
+      </c>
+      <c r="C37">
+        <v>775175</v>
+      </c>
+      <c r="E37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43315.628194444442</v>
+      </c>
+      <c r="C38">
+        <v>782930</v>
+      </c>
+      <c r="E38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43315.628206018519</v>
+      </c>
+      <c r="C39">
+        <v>777179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43315.628217592595</v>
+      </c>
+      <c r="C40">
+        <v>776731</v>
+      </c>
+      <c r="E40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43315.628229166665</v>
+      </c>
+      <c r="C41">
+        <v>778764</v>
+      </c>
+      <c r="E41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43315.628240740742</v>
+      </c>
+      <c r="C42">
+        <v>775934</v>
+      </c>
+      <c r="E42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43315.628252314818</v>
+      </c>
+      <c r="C43">
+        <v>779081</v>
+      </c>
+      <c r="E43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43315.628252314818</v>
+      </c>
+      <c r="C44">
+        <v>1016289</v>
+      </c>
+      <c r="E44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43315.628263888888</v>
+      </c>
+      <c r="C45">
+        <v>883093</v>
+      </c>
+      <c r="E45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43315.628275462965</v>
+      </c>
+      <c r="C46">
+        <v>883014</v>
+      </c>
+      <c r="E46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43315.628287037034</v>
+      </c>
+      <c r="C47">
+        <v>854136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43315.628298611111</v>
+      </c>
+      <c r="C48">
+        <v>813985</v>
+      </c>
+      <c r="E48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43315.628310185188</v>
+      </c>
+      <c r="C49">
+        <v>818428</v>
+      </c>
+      <c r="E49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43315.628321759257</v>
+      </c>
+      <c r="C50">
+        <v>819023</v>
+      </c>
+      <c r="E50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43315.628333333334</v>
+      </c>
+      <c r="C51">
+        <v>817635</v>
+      </c>
+      <c r="E51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43315.628344907411</v>
+      </c>
+      <c r="C52">
+        <v>825443</v>
+      </c>
+      <c r="E52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>43315.62835648148</v>
+      </c>
+      <c r="C53">
+        <v>1176565</v>
+      </c>
+      <c r="E53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54">
+        <v>3053075</v>
+      </c>
+      <c r="E54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43315.628391203703</v>
+      </c>
+      <c r="E55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43315.62841435185</v>
+      </c>
+      <c r="C56">
+        <v>926440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43315.628425925926</v>
+      </c>
+      <c r="C57">
+        <v>888268</v>
+      </c>
+      <c r="E57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43315.628437500003</v>
+      </c>
+      <c r="C58">
+        <v>895735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43315.628449074073</v>
+      </c>
+      <c r="C59">
+        <v>915939</v>
+      </c>
+      <c r="E59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43315.628449074073</v>
+      </c>
+      <c r="E60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>352</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61">
+        <v>899342</v>
+      </c>
+      <c r="E61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>43315.628472222219</v>
+      </c>
+      <c r="C62">
+        <v>1007122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43315.628483796296</v>
+      </c>
+      <c r="C63">
+        <v>982646</v>
+      </c>
+      <c r="E63" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43315.628495370373</v>
+      </c>
+      <c r="C64">
+        <v>930791</v>
+      </c>
+      <c r="E64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>359</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43315.628506944442</v>
+      </c>
+      <c r="C65">
+        <v>935869</v>
+      </c>
+      <c r="E65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43315.628518518519</v>
+      </c>
+      <c r="C66">
+        <v>961753</v>
+      </c>
+      <c r="E66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43315.628530092596</v>
+      </c>
+      <c r="C67">
+        <v>934414</v>
+      </c>
+      <c r="E67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43315.628541666665</v>
+      </c>
+      <c r="C68">
+        <v>973840</v>
+      </c>
+      <c r="E68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43315.628553240742</v>
+      </c>
+      <c r="C69">
+        <v>971794</v>
+      </c>
+      <c r="E69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43315.628564814811</v>
+      </c>
+      <c r="C70">
+        <v>967765</v>
+      </c>
+      <c r="E70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43315.628576388888</v>
+      </c>
+      <c r="C71">
+        <v>972200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43315.628587962965</v>
+      </c>
+      <c r="C72">
+        <v>2614557</v>
+      </c>
+      <c r="E72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43315.628599537034</v>
+      </c>
+      <c r="C73">
+        <v>920113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43315.628622685188</v>
+      </c>
+      <c r="C74">
+        <v>565</v>
+      </c>
+      <c r="E74" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>379</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43315.628622685188</v>
+      </c>
+      <c r="C75">
+        <v>928025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43315.628645833334</v>
+      </c>
+      <c r="C76">
+        <v>951285</v>
+      </c>
+      <c r="E76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43315.628657407404</v>
+      </c>
+      <c r="C77">
+        <v>951099</v>
+      </c>
+      <c r="E77" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43315.628657407404</v>
+      </c>
+      <c r="C78">
+        <v>3124634</v>
+      </c>
+      <c r="E78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43315.628680555557</v>
+      </c>
+      <c r="C79">
+        <v>963724</v>
+      </c>
+      <c r="E79" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>389</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43315.628692129627</v>
+      </c>
+      <c r="C80">
+        <v>924157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>391</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43315.628703703704</v>
+      </c>
+      <c r="C81">
+        <v>926694</v>
+      </c>
+      <c r="E81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43051.599849537037</v>
+      </c>
+      <c r="C82">
+        <v>679949</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C83">
+        <v>680379</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C84">
+        <v>680114</v>
+      </c>
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C85">
+        <v>677649</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C86">
+        <v>680593</v>
+      </c>
+      <c r="E86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C87">
+        <v>868432</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C88">
+        <v>702680</v>
+      </c>
+      <c r="E88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C89">
+        <v>680</v>
+      </c>
+      <c r="E89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C90">
+        <v>2390844</v>
+      </c>
+      <c r="E90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C91">
+        <v>692317</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C92">
+        <v>692317</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C93">
+        <v>692317</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C94">
+        <v>692317</v>
+      </c>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C95">
+        <v>691396</v>
+      </c>
+      <c r="E95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C96">
+        <v>687576</v>
+      </c>
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C97">
+        <v>688273</v>
+      </c>
+      <c r="E97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43051.599861111114</v>
+      </c>
+      <c r="C98">
+        <v>687053</v>
+      </c>
+      <c r="E98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C99">
+        <v>95</v>
+      </c>
+      <c r="E99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C100">
+        <v>95</v>
+      </c>
+      <c r="E100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C101">
+        <v>95</v>
+      </c>
+      <c r="E101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C102">
+        <v>95</v>
+      </c>
+      <c r="E102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C103">
+        <v>95</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C104">
+        <v>95</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
+      <c r="E105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C106">
+        <v>95</v>
+      </c>
+      <c r="E106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C107">
+        <v>95</v>
+      </c>
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C108">
+        <v>95</v>
+      </c>
+      <c r="E108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C109">
+        <v>95</v>
+      </c>
+      <c r="E109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C110">
+        <v>565</v>
+      </c>
+      <c r="E110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C111">
+        <v>565</v>
+      </c>
+      <c r="E111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C112">
+        <v>565</v>
+      </c>
+      <c r="E112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C113">
+        <v>565</v>
+      </c>
+      <c r="E113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C114">
+        <v>2612423</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C115">
+        <v>2612485</v>
+      </c>
+      <c r="E115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C116">
+        <v>736313</v>
+      </c>
+      <c r="E116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C117">
+        <v>753648</v>
+      </c>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C118">
+        <v>880848</v>
+      </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C119">
+        <v>2666985</v>
+      </c>
+      <c r="E119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C120">
+        <v>779212</v>
+      </c>
+      <c r="E120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C121">
+        <v>778585</v>
+      </c>
+      <c r="E121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C122">
+        <v>1004721</v>
+      </c>
+      <c r="E122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C123">
+        <v>2698613</v>
+      </c>
+      <c r="E123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C124">
+        <v>884227</v>
+      </c>
+      <c r="E124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C125">
+        <v>2596498</v>
+      </c>
+      <c r="E125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C126">
+        <v>1204295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C127">
+        <v>754651</v>
+      </c>
+      <c r="E127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C128">
+        <v>770123</v>
+      </c>
+      <c r="E128" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C129">
+        <v>2555903</v>
+      </c>
+      <c r="E129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C130">
+        <v>822445</v>
+      </c>
+      <c r="E130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C131">
+        <v>758559</v>
+      </c>
+      <c r="E131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C132">
+        <v>757782</v>
+      </c>
+      <c r="E132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C133">
+        <v>757627</v>
+      </c>
+      <c r="E133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C134">
+        <v>757627</v>
+      </c>
+      <c r="E134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C135">
+        <v>757627</v>
+      </c>
+      <c r="E135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C136">
+        <v>757627</v>
+      </c>
+      <c r="E136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>189</v>
+      </c>
+      <c r="B137" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C137">
+        <v>760852</v>
+      </c>
+      <c r="E137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C138">
+        <v>761191</v>
+      </c>
+      <c r="E138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C139">
+        <v>95</v>
+      </c>
+      <c r="E139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="1">
+        <v>43051.59988425926</v>
+      </c>
+      <c r="C140">
+        <v>95</v>
+      </c>
+      <c r="E140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C141">
+        <v>565</v>
+      </c>
+      <c r="E141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C142">
+        <v>760711</v>
+      </c>
+      <c r="E142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C143">
+        <v>762043</v>
+      </c>
+      <c r="E143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C144">
+        <v>759928</v>
+      </c>
+      <c r="E144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C145">
+        <v>2598677</v>
+      </c>
+      <c r="E145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C146">
+        <v>768888</v>
+      </c>
+      <c r="E146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B147" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C147">
+        <v>768961</v>
+      </c>
+      <c r="E147" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>211</v>
+      </c>
+      <c r="B148" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C148">
+        <v>766961</v>
+      </c>
+      <c r="E148" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C149">
+        <v>768258</v>
+      </c>
+      <c r="E149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C150">
+        <v>769416</v>
+      </c>
+      <c r="E150" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C151">
+        <v>771663</v>
+      </c>
+      <c r="E151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C152">
+        <v>773897</v>
+      </c>
+      <c r="E152" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>221</v>
+      </c>
+      <c r="B153" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C153">
+        <v>772619</v>
+      </c>
+      <c r="E153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>223</v>
+      </c>
+      <c r="B154" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C154">
+        <v>787814</v>
+      </c>
+      <c r="E154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C155">
+        <v>775235</v>
+      </c>
+      <c r="E155" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C156">
+        <v>786541</v>
+      </c>
+      <c r="E156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C157">
+        <v>775753</v>
+      </c>
+      <c r="E157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>231</v>
+      </c>
+      <c r="B158" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C158">
+        <v>777520</v>
+      </c>
+      <c r="E158" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>233</v>
+      </c>
+      <c r="B159" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C159">
+        <v>776398</v>
+      </c>
+      <c r="E159" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>235</v>
+      </c>
+      <c r="B160" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C160">
+        <v>779705</v>
+      </c>
+      <c r="E160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C161">
+        <v>784617</v>
+      </c>
+      <c r="E161" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>239</v>
+      </c>
+      <c r="B162" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C162">
+        <v>778558</v>
+      </c>
+      <c r="E162" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>241</v>
+      </c>
+      <c r="B163" s="1">
+        <v>43051.599652777775</v>
+      </c>
+      <c r="C163">
+        <v>781662</v>
+      </c>
+      <c r="E163" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C164">
+        <v>565</v>
+      </c>
+      <c r="E164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C165">
+        <v>784067</v>
+      </c>
+      <c r="E165" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>247</v>
+      </c>
+      <c r="B166" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C166">
+        <v>2653064</v>
+      </c>
+      <c r="E166" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C167">
+        <v>779417</v>
+      </c>
+      <c r="E167" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C168">
+        <v>780254</v>
+      </c>
+      <c r="E168" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>253</v>
+      </c>
+      <c r="B169" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C169">
+        <v>781848</v>
+      </c>
+      <c r="E169" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>255</v>
+      </c>
+      <c r="B170" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C170">
+        <v>789321</v>
+      </c>
+      <c r="E170" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" s="1">
+        <v>43051.599641203706</v>
+      </c>
+      <c r="C171">
+        <v>793025</v>
+      </c>
+      <c r="E171" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>259</v>
+      </c>
+      <c r="B172" s="1">
+        <v>43315.626284722224</v>
+      </c>
+      <c r="C172">
+        <v>810746</v>
+      </c>
+      <c r="E172" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173" s="1">
+        <v>43315.626296296294</v>
+      </c>
+      <c r="C173">
+        <v>773510</v>
+      </c>
+      <c r="E173" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>263</v>
+      </c>
+      <c r="B174" s="1">
+        <v>43315.626307870371</v>
+      </c>
+      <c r="C174">
+        <v>768684</v>
+      </c>
+      <c r="E174" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>265</v>
+      </c>
+      <c r="B175" s="1">
+        <v>43315.626307870371</v>
+      </c>
+      <c r="C175">
+        <v>776704</v>
+      </c>
+      <c r="E175" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" s="1">
+        <v>43315.626180555555</v>
+      </c>
+      <c r="C176">
+        <v>774590</v>
+      </c>
+      <c r="E176" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>269</v>
+      </c>
+      <c r="B177" s="1">
+        <v>43315.626192129632</v>
+      </c>
+      <c r="C177">
+        <v>773359</v>
+      </c>
+      <c r="E177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" s="1">
+        <v>43315.626203703701</v>
+      </c>
+      <c r="C178">
+        <v>782688</v>
+      </c>
+      <c r="E178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>273</v>
+      </c>
+      <c r="B179" s="1">
+        <v>43315.626215277778</v>
+      </c>
+      <c r="C179">
+        <v>779570</v>
+      </c>
+      <c r="E179" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>275</v>
+      </c>
+      <c r="B180" s="1">
+        <v>43315.626226851855</v>
+      </c>
+      <c r="C180">
+        <v>777042</v>
+      </c>
+      <c r="E180" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" s="1">
+        <v>43315.626226851855</v>
+      </c>
+      <c r="C181">
+        <v>777042</v>
+      </c>
+      <c r="E181" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>279</v>
+      </c>
+      <c r="B182" s="1">
+        <v>43315.626238425924</v>
+      </c>
+      <c r="C182">
+        <v>776698</v>
+      </c>
+      <c r="E182" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>281</v>
+      </c>
+      <c r="B183" s="1">
+        <v>43315.626250000001</v>
+      </c>
+      <c r="C183">
+        <v>776302</v>
+      </c>
+      <c r="E183" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="1">
+        <v>43315.626261574071</v>
+      </c>
+      <c r="C184">
+        <v>776302</v>
+      </c>
+      <c r="E184" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>285</v>
+      </c>
+      <c r="B185" s="1">
+        <v>43315.626273148147</v>
+      </c>
+      <c r="C185">
+        <v>776302</v>
+      </c>
+      <c r="E185" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="1">
+        <v>43315.626273148147</v>
+      </c>
+      <c r="C186">
+        <v>809672</v>
+      </c>
+      <c r="E186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="1">
+        <v>43051.599791666667</v>
+      </c>
+      <c r="C187">
+        <v>73146</v>
+      </c>
+      <c r="E187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>75</v>
+      </c>
+      <c r="B188" s="1">
+        <v>43051.599791666667</v>
+      </c>
+      <c r="C188">
+        <v>3274</v>
+      </c>
+      <c r="E188" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>77</v>
+      </c>
+      <c r="B189" s="1">
+        <v>43051.599791666667</v>
+      </c>
+      <c r="C189">
+        <v>9069</v>
+      </c>
+      <c r="E189" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -602,19 +4205,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,12 +4231,12 @@
         <v>47031</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>42766.696527777778</v>
@@ -642,12 +4245,12 @@
         <v>877</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>43052.537453703706</v>
@@ -656,12 +4259,12 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>42856.351365740738</v>
@@ -670,15 +4273,15 @@
         <v>1458856</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>43046.672592592593</v>
@@ -687,12 +4290,12 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>37595.919120370374</v>
@@ -701,12 +4304,12 @@
         <v>454656</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>41717.849745370368</v>
@@ -715,15 +4318,15 @@
         <v>20480</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>42645.414606481485</v>
@@ -732,10 +4335,10 @@
         <v>2309632</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
